--- a/data/trans_orig/P57B5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>274757</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>246270</v>
+        <v>246301</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>304850</v>
+        <v>305039</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3995747802337009</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3581462852965992</v>
+        <v>0.3581910382766257</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4433387120863106</v>
+        <v>0.4436132903268004</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>296</v>
@@ -762,19 +762,19 @@
         <v>217108</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>197534</v>
+        <v>194615</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>240466</v>
+        <v>238515</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2975438726896082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2707183747332736</v>
+        <v>0.2667175381149801</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3295564009139637</v>
+        <v>0.3268823490084273</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>536</v>
@@ -783,19 +783,19 @@
         <v>491866</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>451623</v>
+        <v>456284</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>528466</v>
+        <v>527944</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3470459874259784</v>
+        <v>0.3470459874259785</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3186520424985413</v>
+        <v>0.3219410056552448</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3728703990367231</v>
+        <v>0.3725017703607202</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>232866</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>205116</v>
+        <v>206880</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>258578</v>
+        <v>259300</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3386530258255828</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2982966294509442</v>
+        <v>0.300862664922747</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3760450257550541</v>
+        <v>0.3770958601324758</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>489</v>
@@ -833,19 +833,19 @@
         <v>291949</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>270393</v>
+        <v>270504</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>314004</v>
+        <v>313173</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4001121840917037</v>
+        <v>0.4001121840917036</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3705705915599756</v>
+        <v>0.3707232121842462</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4303385657087521</v>
+        <v>0.4292000387469729</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>742</v>
@@ -854,19 +854,19 @@
         <v>524815</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>492311</v>
+        <v>488241</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>560446</v>
+        <v>560668</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3702941772022178</v>
+        <v>0.3702941772022179</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3473602408331692</v>
+        <v>0.3444888579042828</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3954340864377927</v>
+        <v>0.3955911733126578</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>142631</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>123748</v>
+        <v>122606</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>166672</v>
+        <v>164606</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2074260307945609</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1799640696362491</v>
+        <v>0.1783034572751162</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2423879257605891</v>
+        <v>0.2393840845046663</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>321</v>
@@ -904,19 +904,19 @@
         <v>159578</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>144170</v>
+        <v>144678</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>177669</v>
+        <v>180085</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2187002975007747</v>
+        <v>0.2187002975007746</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.19758263991458</v>
+        <v>0.1982793965642398</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2434929363630884</v>
+        <v>0.2468040013070843</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>507</v>
@@ -925,19 +925,19 @@
         <v>302210</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>277186</v>
+        <v>277454</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>330898</v>
+        <v>332426</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2132303859073857</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1955745097868181</v>
+        <v>0.1957632818885183</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2334717194924122</v>
+        <v>0.2345497863686959</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>37370</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27925</v>
+        <v>27766</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51516</v>
+        <v>50725</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05434616314615533</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0406109415112187</v>
+        <v>0.04038030321176429</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07491922811825091</v>
+        <v>0.07376856929611972</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>126</v>
@@ -975,19 +975,19 @@
         <v>61032</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50703</v>
+        <v>49696</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71766</v>
+        <v>72029</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08364364571791337</v>
+        <v>0.08364364571791336</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06948756830434348</v>
+        <v>0.06810782926112703</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09835402016586717</v>
+        <v>0.09871531780262364</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>173</v>
@@ -996,19 +996,19 @@
         <v>98402</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83323</v>
+        <v>83791</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115862</v>
+        <v>114678</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06942944946441802</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05879033355176773</v>
+        <v>0.05912077280479235</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08174865380197582</v>
+        <v>0.08091334454235623</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>446072</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>411442</v>
+        <v>408498</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>482000</v>
+        <v>483294</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4256295546098779</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3925862906701883</v>
+        <v>0.389776988179529</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4599113807147035</v>
+        <v>0.4611459933734568</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>411</v>
@@ -1121,19 +1121,19 @@
         <v>344553</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>317191</v>
+        <v>313502</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>373407</v>
+        <v>372359</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3229131633220088</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2972694090289099</v>
+        <v>0.2938126310168733</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.349955055551655</v>
+        <v>0.348972714922879</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>766</v>
@@ -1142,19 +1142,19 @@
         <v>790625</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>743688</v>
+        <v>742615</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>837838</v>
+        <v>835383</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3738103354038001</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3516181282847122</v>
+        <v>0.3511109346098861</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3961328852022293</v>
+        <v>0.3949717673609022</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>422404</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>388316</v>
+        <v>383333</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>462085</v>
+        <v>455844</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4030462306264394</v>
+        <v>0.4030462306264393</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3705200888753362</v>
+        <v>0.3657653895508015</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4409086192705458</v>
+        <v>0.434953690647529</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>647</v>
@@ -1192,19 +1192,19 @@
         <v>453957</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>426446</v>
+        <v>427058</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>485612</v>
+        <v>482934</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4254454709233362</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3996623801650649</v>
+        <v>0.4002363259388244</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4551124575071239</v>
+        <v>0.4526032171547019</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1054</v>
@@ -1213,19 +1213,19 @@
         <v>876361</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>829191</v>
+        <v>831021</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>923300</v>
+        <v>924960</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4143463856303427</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3920441420894619</v>
+        <v>0.3929094162404916</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4365392141258075</v>
+        <v>0.4373242512834954</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>139798</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>118508</v>
+        <v>118440</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>163530</v>
+        <v>162424</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1333911679155016</v>
+        <v>0.1333911679155015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1130769531355544</v>
+        <v>0.1130119810875429</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1560358152876799</v>
+        <v>0.1549808527762211</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>348</v>
@@ -1263,19 +1263,19 @@
         <v>205959</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>186653</v>
+        <v>185388</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>227987</v>
+        <v>227919</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1930232071744981</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1749300162879665</v>
+        <v>0.1737444151825033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2136676031056788</v>
+        <v>0.2136046251859647</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>508</v>
@@ -1284,19 +1284,19 @@
         <v>345756</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>315818</v>
+        <v>314780</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>377068</v>
+        <v>377605</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1634748349458904</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1493197021254808</v>
+        <v>0.1488292584216786</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1782790285127208</v>
+        <v>0.1785328606976821</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>39755</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28229</v>
+        <v>26977</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53759</v>
+        <v>54544</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03793304684818102</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02693543135568712</v>
+        <v>0.02574032457767014</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0512953400604525</v>
+        <v>0.05204427153937047</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>103</v>
@@ -1334,19 +1334,19 @@
         <v>62546</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51453</v>
+        <v>50485</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>76163</v>
+        <v>75817</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05861815858015694</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04822183934247565</v>
+        <v>0.04731393961332357</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07137938725514682</v>
+        <v>0.07105518004597025</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>144</v>
@@ -1355,19 +1355,19 @@
         <v>102301</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>86376</v>
+        <v>85211</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>123533</v>
+        <v>120990</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04836844401996683</v>
+        <v>0.04836844401996682</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0408390429918459</v>
+        <v>0.04028782179920928</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05840679951375268</v>
+        <v>0.05720470582643458</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>345368</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>313532</v>
+        <v>312401</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>377369</v>
+        <v>378658</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4304394453775393</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3907613118712814</v>
+        <v>0.389351875711667</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.470322125118559</v>
+        <v>0.471928878986742</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>313</v>
@@ -1480,19 +1480,19 @@
         <v>271908</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>246516</v>
+        <v>247022</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>298910</v>
+        <v>297507</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.335667037973042</v>
+        <v>0.3356670379730419</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3043212070567279</v>
+        <v>0.3049463572813844</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3690014248261145</v>
+        <v>0.3672688463112703</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>573</v>
@@ -1501,19 +1501,19 @@
         <v>617276</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>573325</v>
+        <v>571860</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>659677</v>
+        <v>661574</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3828272380207787</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3555691008125574</v>
+        <v>0.3546605521686246</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4091238902051383</v>
+        <v>0.4103000944873392</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>318534</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>288827</v>
+        <v>286223</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>351927</v>
+        <v>350548</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3969954114030846</v>
+        <v>0.3969954114030848</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3599714164266296</v>
+        <v>0.3567251158894951</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4386136256043214</v>
+        <v>0.436895474747427</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>470</v>
@@ -1551,19 +1551,19 @@
         <v>352112</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>326438</v>
+        <v>324445</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>379309</v>
+        <v>378160</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4346779585530888</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4029834519856927</v>
+        <v>0.4005239924268106</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.468252107331019</v>
+        <v>0.4668336588768139</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>749</v>
@@ -1572,19 +1572,19 @@
         <v>670646</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>633241</v>
+        <v>626918</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>712919</v>
+        <v>712873</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.415926546506357</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3927286943553372</v>
+        <v>0.3888072714911719</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4421439693724057</v>
+        <v>0.442115227514513</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>115922</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96505</v>
+        <v>96890</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>139007</v>
+        <v>138691</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1444760845701565</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1202757919814446</v>
+        <v>0.1207556918850341</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1732476487275053</v>
+        <v>0.1728531915401741</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>198</v>
@@ -1622,19 +1622,19 @@
         <v>143645</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>124842</v>
+        <v>123124</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>166437</v>
+        <v>164636</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1773276786324219</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1541160555927081</v>
+        <v>0.1519949372964469</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2054644692344421</v>
+        <v>0.2032416419923493</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>314</v>
@@ -1643,19 +1643,19 @@
         <v>259567</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>232405</v>
+        <v>232140</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>289897</v>
+        <v>287909</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1609802227611051</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.144134648742339</v>
+        <v>0.1439702011123682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1797904799908737</v>
+        <v>0.1785576790164009</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>22538</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14522</v>
+        <v>14105</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34652</v>
+        <v>35773</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0280890586492194</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01809883848016412</v>
+        <v>0.01757908164615474</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04318751251121916</v>
+        <v>0.04458434473064454</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -1693,19 +1693,19 @@
         <v>42388</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33445</v>
+        <v>32661</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54643</v>
+        <v>53765</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05232732484144725</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04128743865599085</v>
+        <v>0.0403194546705536</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06745622179746008</v>
+        <v>0.06637230915961266</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>83</v>
@@ -1714,19 +1714,19 @@
         <v>64925</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>52020</v>
+        <v>52268</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>81313</v>
+        <v>81135</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04026599271175908</v>
+        <v>0.04026599271175909</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03226190891015668</v>
+        <v>0.0324161210149962</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05042958614527306</v>
+        <v>0.05031869331317438</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>373364</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>339859</v>
+        <v>342881</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>403697</v>
+        <v>407438</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3780731504735493</v>
+        <v>0.3780731504735492</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3441458049080426</v>
+        <v>0.3472053584376838</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4087886163711325</v>
+        <v>0.4125762860883341</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>404</v>
@@ -1839,19 +1839,19 @@
         <v>326844</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>300631</v>
+        <v>299912</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>358276</v>
+        <v>358586</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2924004657652139</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2689500419010988</v>
+        <v>0.2683072068070656</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3205200295364982</v>
+        <v>0.3207979582631938</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>738</v>
@@ -1860,19 +1860,19 @@
         <v>700208</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>657732</v>
+        <v>653979</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>742550</v>
+        <v>745459</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3325866782924147</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3124112243034277</v>
+        <v>0.3106288563504965</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3526986954568107</v>
+        <v>0.3540804990484739</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>417233</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>388548</v>
+        <v>384904</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>453640</v>
+        <v>451774</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4224952486154138</v>
+        <v>0.4224952486154139</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3934488500668631</v>
+        <v>0.3897586514315641</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4593618350289039</v>
+        <v>0.4574722143091372</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>649</v>
@@ -1910,19 +1910,19 @@
         <v>460562</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>429701</v>
+        <v>426144</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>493071</v>
+        <v>489345</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4120270240559953</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3844180089278044</v>
+        <v>0.381236479384758</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4411100898737885</v>
+        <v>0.4377766729886445</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1089</v>
@@ -1931,19 +1931,19 @@
         <v>877794</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>835959</v>
+        <v>827261</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>928371</v>
+        <v>919460</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4169373207084162</v>
+        <v>0.4169373207084163</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3970662030960485</v>
+        <v>0.3929348024835739</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4409601707970325</v>
+        <v>0.4367277334935726</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>153058</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>131114</v>
+        <v>133451</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>175166</v>
+        <v>180486</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1549879509440405</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1327672226751308</v>
+        <v>0.1351342671243799</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1773751872432814</v>
+        <v>0.1827624080068774</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>394</v>
@@ -1981,19 +1981,19 @@
         <v>254758</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>232726</v>
+        <v>232113</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>280396</v>
+        <v>278698</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2279108813539885</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2082010130378179</v>
+        <v>0.2076526570138366</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2508470722422212</v>
+        <v>0.2493280792365207</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>573</v>
@@ -2002,19 +2002,19 @@
         <v>407815</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>375278</v>
+        <v>376582</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>443060</v>
+        <v>442202</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.193705155345319</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1782506568583067</v>
+        <v>0.1788698821920237</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.210446007098974</v>
+        <v>0.2100385400408307</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>43890</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31941</v>
+        <v>33205</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58747</v>
+        <v>60430</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04444364996699638</v>
+        <v>0.04444364996699637</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03234353207386283</v>
+        <v>0.03362395243108993</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05948781231895774</v>
+        <v>0.06119180663798438</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>113</v>
@@ -2052,19 +2052,19 @@
         <v>75632</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>61717</v>
+        <v>62243</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91112</v>
+        <v>91597</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06766162882480239</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05521339930899524</v>
+        <v>0.05568409254513015</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08151022802667522</v>
+        <v>0.0819442674480189</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>162</v>
@@ -2073,19 +2073,19 @@
         <v>119522</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>100841</v>
+        <v>103216</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>139132</v>
+        <v>140047</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05677084565385</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04789792208572732</v>
+        <v>0.04902577617846231</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06608543984429076</v>
+        <v>0.06652016012288647</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>1439562</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1372674</v>
+        <v>1372309</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1501428</v>
+        <v>1508001</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4083214679014763</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3893490783238654</v>
+        <v>0.3892456551596242</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4258694775380336</v>
+        <v>0.4277337714420762</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1424</v>
@@ -2198,19 +2198,19 @@
         <v>1160413</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1112482</v>
+        <v>1107499</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1212982</v>
+        <v>1211711</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3115595766527253</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2986906812948444</v>
+        <v>0.2973526594479722</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3256738001798118</v>
+        <v>0.3253325472636693</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2613</v>
@@ -2219,19 +2219,19 @@
         <v>2599975</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2515895</v>
+        <v>2524176</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2687246</v>
+        <v>2692245</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3586127722692095</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3470157002755201</v>
+        <v>0.3481578668851063</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.370649952336301</v>
+        <v>0.3713395935690174</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>1391037</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1328471</v>
+        <v>1327545</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1457214</v>
+        <v>1455476</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3945577889223278</v>
+        <v>0.3945577889223277</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3768112636213332</v>
+        <v>0.3765488265750139</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4133283328754167</v>
+        <v>0.4128353444573197</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2255</v>
@@ -2269,19 +2269,19 @@
         <v>1558579</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1503140</v>
+        <v>1499537</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1610952</v>
+        <v>1606800</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4184633420675134</v>
+        <v>0.4184633420675133</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4035785764054571</v>
+        <v>0.4026111338584195</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4325249506841338</v>
+        <v>0.4314103549637242</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3634</v>
@@ -2290,19 +2290,19 @@
         <v>2949616</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2870538</v>
+        <v>2864628</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3032945</v>
+        <v>3029727</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4068385933782902</v>
+        <v>0.4068385933782903</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3959313502288335</v>
+        <v>0.3951161750361589</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4183320745251537</v>
+        <v>0.4178881816300186</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>551409</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>510276</v>
+        <v>511233</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>594890</v>
+        <v>599176</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1564031376225111</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1447361480634096</v>
+        <v>0.1450074753209281</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1687363308511393</v>
+        <v>0.1699519224124836</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1261</v>
@@ -2340,19 +2340,19 @@
         <v>763939</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>720446</v>
+        <v>722660</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>804452</v>
+        <v>805904</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2051103154814824</v>
+        <v>0.2051103154814823</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1934326980703479</v>
+        <v>0.1940273407640667</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2159876128915071</v>
+        <v>0.2163774684481026</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1902</v>
@@ -2361,19 +2361,19 @@
         <v>1315348</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1257073</v>
+        <v>1261239</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1371033</v>
+        <v>1386684</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1814250780584835</v>
+        <v>0.1814250780584836</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1733872038220007</v>
+        <v>0.1739618662877884</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1891056068059483</v>
+        <v>0.1912644202771914</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>143552</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>121325</v>
+        <v>121158</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>170703</v>
+        <v>168288</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.04071760555368477</v>
+        <v>0.04071760555368476</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03441299976913234</v>
+        <v>0.03436567427737906</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0484187958333169</v>
+        <v>0.04773370078611945</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>405</v>
@@ -2411,19 +2411,19 @@
         <v>241598</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>219866</v>
+        <v>219519</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>267913</v>
+        <v>266571</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.06486676579827901</v>
+        <v>0.06486676579827899</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05903189739390441</v>
+        <v>0.05893881515959101</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07193194835488186</v>
+        <v>0.07157178311728875</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>562</v>
@@ -2432,19 +2432,19 @@
         <v>385151</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>354220</v>
+        <v>351563</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>421772</v>
+        <v>419322</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05312355629401683</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04885729742260182</v>
+        <v>0.04849084017478707</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.05817466004116401</v>
+        <v>0.05783675221518154</v>
       </c>
     </row>
     <row r="28">
